--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cursos\Maestria finanzas\S3_Trading\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C88A4A-4622-4E9A-A774-0C4E9CE6586E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B82B63-DEE6-41BF-9082-0BD06301190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27288" yWindow="4968" windowWidth="17724" windowHeight="19728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,7 +177,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +530,8 @@
   <dimension ref="A2:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" ref="M6:M28" si="0">+K6/L6-1</f>
+        <f t="shared" ref="M6:M27" si="0">+K6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -667,8 +659,8 @@
         <v>4784.25</v>
       </c>
       <c r="F7">
-        <f>+C7/C6-1</f>
-        <v>1.8674666193889022E-2</v>
+        <f>+D7/D6-1</f>
+        <v>-6.2962195706051105E-4</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G70" si="1">+IF(C7&gt;$G$4,1,0)</f>
@@ -706,8 +698,8 @@
         <v>4692.5</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F71" si="3">+C8/C7-1</f>
-        <v>0.16676521113368259</v>
+        <f t="shared" ref="F8:F71" si="3">+D8/D7-1</f>
+        <v>-1.9392757790687165E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -746,7 +738,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>-6.0820544687743006E-3</v>
+        <v>-9.6376901620764954E-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -785,7 +777,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>-4.334525012819368E-2</v>
+        <v>-4.050216740091761E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -902,7 +894,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>3.4115105641796539E-2</v>
+        <v>-1.4410312534549607E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -941,7 +933,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-5.1030917040459367E-2</v>
+        <v>9.159984668711818E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -980,7 +972,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-4.2911407644023458E-2</v>
+        <v>2.8177544430294521E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -1019,7 +1011,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0.15266733817170564</v>
+        <v>-1.42436152864307E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -1058,7 +1050,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>-5.5145197505439225E-2</v>
+        <v>8.1998026974883231E-4</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -1214,7 +1206,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>0.18759772179685918</v>
+        <v>-1.8387945694007368E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
@@ -1253,7 +1245,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>4.6511602604639934E-2</v>
+        <v>-9.6895418683388135E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
@@ -1292,7 +1284,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>7.2955964079147506E-2</v>
+        <v>-1.103737849414832E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
@@ -1331,7 +1323,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.12739352127562054</v>
+        <v>-1.8914821867908604E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
@@ -1448,7 +1440,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>3.6395120387414215E-2</v>
+        <v>2.7717389433818962E-3</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
@@ -1487,7 +1479,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>4.2140476419971762E-2</v>
+        <v>-1.2171906253646725E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
@@ -1532,7 +1524,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>2.567391659108087E-2</v>
+        <v>-1.4966358477518371E-3</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
@@ -1547,7 +1539,7 @@
       </c>
       <c r="K29">
         <f>+K28*(1+F29)</f>
-        <v>1.0256739165910809</v>
+        <v>0.99850336415224816</v>
       </c>
       <c r="L29">
         <f>+L28</f>
@@ -1555,7 +1547,7 @@
       </c>
       <c r="M29">
         <f>+K29/L29-1</f>
-        <v>2.567391659108087E-2</v>
+        <v>-1.4966358477518371E-3</v>
       </c>
       <c r="O29" t="s">
         <v>20</v>
@@ -1579,7 +1571,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>-4.5994973575223863E-2</v>
+        <v>-5.3840887577105701E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
@@ -1594,7 +1586,7 @@
       </c>
       <c r="K30">
         <f>+K29*(1+F30)</f>
-        <v>0.97849807190067772</v>
+        <v>0.99312733341477988</v>
       </c>
       <c r="L30">
         <f>+L29</f>
@@ -1602,7 +1594,7 @@
       </c>
       <c r="M30">
         <f>+K30/L30-1</f>
-        <v>-2.1501928099322276E-2</v>
+        <v>-6.8726665852201219E-3</v>
       </c>
       <c r="O30" t="s">
         <v>20</v>
@@ -1626,7 +1618,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>-9.2817315347663132E-2</v>
+        <v>2.4347646888076113E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -1637,22 +1629,22 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7">
-        <f>+K30*(1+F31)</f>
-        <v>0.88767650779399221</v>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K36" si="4">+K30*(1+F31)</f>
+        <v>1.0173076470436595</v>
       </c>
       <c r="L31">
         <f>+L30</f>
         <v>1</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" ref="M31:M94" si="4">+K31/L31-1</f>
-        <v>-0.11232349220600779</v>
+      <c r="M31">
+        <f t="shared" ref="M31:M94" si="5">+K31/L31-1</f>
+        <v>1.7307647043659502E-2</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P31" t="s">
         <v>13</v>
@@ -1690,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f>+K31</f>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="4"/>
+        <v>1.0173076470436595</v>
       </c>
       <c r="L32">
-        <f>+K31</f>
-        <v>0.88767650779399221</v>
+        <f>+L31</f>
+        <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.7307647043659502E-2</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1737,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <f>+K32</f>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="4"/>
+        <v>1.0173076470436595</v>
       </c>
       <c r="L33">
         <f>+L32</f>
-        <v>0.88767650779399221</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.7307647043659502E-2</v>
       </c>
       <c r="O33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -1770,7 +1762,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>-0.10231380836290338</v>
+        <v>1.8885951732779516E-2</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -1784,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K57" si="5">+K33</f>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="4"/>
+        <v>1.0365204701631137</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L57" si="6">+L33</f>
-        <v>0.88767650779399221</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.6520470163113661E-2</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1817,7 +1809,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>-0.11558601885025799</v>
+        <v>6.8630035578014503E-3</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -1831,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="4"/>
+        <v>1.0436341138375771</v>
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4.3634113837577093E-2</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,7 +1856,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>5.9199031664418644E-3</v>
+        <v>9.4225154473364103E-3</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -1878,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="4"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="5"/>
+        <v>5.346777239657885E-2</v>
       </c>
       <c r="O36" t="s">
         <v>21</v>
@@ -1911,7 +1903,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>0.10230874663969058</v>
+        <v>-2.4391082077444004E-2</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
@@ -1925,15 +1917,15 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <f t="shared" ref="K34:K57" si="7">+K36</f>
+        <v>1.0534677723965788</v>
+      </c>
+      <c r="L37">
+        <f>+K36</f>
+        <v>1.0534677723965788</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O37" t="s">
@@ -1958,7 +1950,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>-4.640661397998036E-2</v>
+        <v>5.1569298644233985E-3</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
@@ -1972,15 +1964,15 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L38">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O38" t="s">
@@ -2019,15 +2011,15 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L39">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O39" t="s">
@@ -2066,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L40">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" t="s">
@@ -2099,7 +2091,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>-1.5503820570566651E-2</v>
+        <v>-3.7017126347429485E-3</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
@@ -2113,15 +2105,15 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L41">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O41" t="s">
@@ -2146,7 +2138,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>-6.2117237024522542E-2</v>
+        <v>8.4012071916632625E-3</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
@@ -2160,15 +2152,15 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L42">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" t="s">
@@ -2193,7 +2185,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>-6.9029916638013389E-2</v>
+        <v>1.4517207887505545E-2</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
@@ -2207,15 +2199,15 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L43">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O43" t="s">
@@ -2240,7 +2232,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>0.19789583888369244</v>
+        <v>-1.8115725668459759E-2</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
@@ -2254,15 +2246,15 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" t="s">
@@ -2287,7 +2279,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>0.14429112442310865</v>
+        <v>-1.896945434456343E-2</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
@@ -2301,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" t="s">
@@ -2348,15 +2340,15 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O46" t="s">
@@ -2395,15 +2387,15 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L47">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O47" t="s">
@@ -2428,7 +2420,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>3.5453190486680608E-2</v>
+        <v>-3.8405967262932217E-3</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
@@ -2442,15 +2434,15 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O48" t="s">
@@ -2475,7 +2467,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>-9.2834421738415274E-2</v>
+        <v>1.5766721170720421E-2</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
@@ -2489,15 +2481,15 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" t="s">
@@ -2522,7 +2514,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>-5.4863805663593279E-2</v>
+        <v>8.8120775589506373E-4</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
@@ -2536,15 +2528,15 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L50">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O50" t="s">
@@ -2569,7 +2561,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>0.15726634626770597</v>
+        <v>-2.1173138152195015E-2</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
@@ -2583,15 +2575,15 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L51">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O51" t="s">
@@ -2616,7 +2608,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>-1.2806851744392667E-2</v>
+        <v>-7.1661613961429005E-3</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
@@ -2630,15 +2622,15 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L52">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O52" t="s">
@@ -2677,15 +2669,15 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L53">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O53" t="s">
@@ -2724,15 +2716,15 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L54">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O54" t="s">
@@ -2771,15 +2763,15 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L55">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O55" t="s">
@@ -2804,7 +2796,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>3.819817895287847E-2</v>
+        <v>-1.0142945264832837E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
@@ -2818,15 +2810,15 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L56">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O56" t="s">
@@ -2851,7 +2843,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>7.670951172469942E-2</v>
+        <v>-1.8412122845487655E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
@@ -2865,15 +2857,15 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
-        <v>0.88767650779399221</v>
+        <f t="shared" si="7"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="L57">
         <f t="shared" si="6"/>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O57" t="s">
@@ -2898,7 +2890,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>-2.256611065794667E-2</v>
+        <v>1.4956856067329216E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
@@ -2913,15 +2905,15 @@
       </c>
       <c r="K58">
         <f>+K57*(1+F58)</f>
-        <v>0.86764510149065333</v>
+        <v>1.0692243382398845</v>
       </c>
       <c r="L58">
         <f>+K57</f>
-        <v>0.88767650779399221</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
-        <v>-2.256611065794667E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.4956856067329216E-2</v>
       </c>
       <c r="O58" t="s">
         <v>20</v>
@@ -2945,7 +2937,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>-9.0039563644928156E-2</v>
+        <v>2.2372677655603468E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
@@ -2959,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" ref="K59" si="7">+K58*(1+F59)</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" ref="K59:K62" si="8">+K58*(1+F59)</f>
+        <v>1.0931457497008514</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L33:L59" si="8">+L58</f>
-        <v>0.88767650779399221</v>
-      </c>
-      <c r="M59" s="6">
-        <f t="shared" si="4"/>
-        <v>-0.11057383154607014</v>
+        <f t="shared" ref="L59:L72" si="9">+L58</f>
+        <v>1.0534677723965788</v>
+      </c>
+      <c r="M59" s="7">
+        <f t="shared" si="5"/>
+        <v>3.7664158642468415E-2</v>
       </c>
       <c r="O59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P59" t="s">
         <v>13</v>
@@ -3009,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <f>+K59</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="8"/>
+        <v>1.0931457497008514</v>
       </c>
       <c r="L60">
-        <f>+K59</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.7664158642468415E-2</v>
       </c>
       <c r="O60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3056,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <f>+K60</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="8"/>
+        <v>1.0931457497008514</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L63" si="9">+K60</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.7664158642468415E-2</v>
       </c>
       <c r="O61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3089,7 +3081,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>9.2787221884167215E-2</v>
+        <v>-2.4426034406476171E-3</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
@@ -3100,19 +3092,19 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <f>+K61</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="8"/>
+        <v>1.0904756281315029</v>
       </c>
       <c r="L62">
-        <f>+L61</f>
-        <v>0.78952271515377548</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.5129556598331613E-2</v>
       </c>
       <c r="O62" t="s">
         <v>20</v>
@@ -3136,7 +3128,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>0.10514096571814413</v>
+        <v>-1.5473503680411893E-2</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
@@ -3147,22 +3139,22 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <f>+K62*(1+F63)</f>
-        <v>0.87253389588145469</v>
+        <f t="shared" ref="K63:K66" si="10">+K62*(1+F63)</f>
+        <v>1.0736021494862107</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
-        <v>0.78952271515377548</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
-        <v>0.10514096571814413</v>
+        <f t="shared" ref="M63:M66" si="11">+K63/L63-1</f>
+        <v>1.9112475594604383E-2</v>
       </c>
       <c r="O63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P63" t="s">
         <v>15</v>
@@ -3186,7 +3178,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>-7.7430970808406774E-2</v>
+        <v>1.8642691757321028E-2</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
@@ -3197,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <f>+K63</f>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="10"/>
+        <v>1.0936169834290794</v>
       </c>
       <c r="L64">
-        <f>+K63</f>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3.8111475343154844E-2</v>
       </c>
       <c r="O64" t="s">
         <v>20</v>
@@ -3233,7 +3225,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>-8.4580426420859389E-3</v>
+        <v>-5.2546664300883172E-3</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
@@ -3244,19 +3236,22 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <f>+K64*(1+F65)</f>
-        <v>0.86515396698342395</v>
+        <f t="shared" si="10"/>
+        <v>1.0878703909788803</v>
       </c>
       <c r="L65">
-        <f>+L64</f>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
-        <v>-8.4580426420859389E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.2656545822979943E-2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -3277,7 +3272,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
-        <v>4.9212599164295989E-2</v>
+        <v>-7.9340425503344747E-3</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
@@ -3288,19 +3283,22 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <f>+K65*(1+F66)</f>
-        <v>0.90773044237597977</v>
+        <f t="shared" si="10"/>
+        <v>1.0792391810076047</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L69" si="10">+L65</f>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
-        <v>4.0338314259950492E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.4463404848538817E-2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -3332,19 +3330,22 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <f>+K66*(1+F67)</f>
-        <v>0.90773044237597977</v>
+        <f t="shared" ref="K67:K72" si="12">+K66*(1+F67)</f>
+        <v>1.0792391810076047</v>
       </c>
       <c r="L67">
-        <f t="shared" si="10"/>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M67">
-        <f t="shared" si="4"/>
-        <v>4.0338314259950492E-2</v>
+        <f t="shared" ref="M67:M72" si="13">+K67/L67-1</f>
+        <v>2.4463404848538817E-2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -3376,19 +3377,22 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <f>+K67*(1+F68)</f>
-        <v>0.90773044237597977</v>
+        <f t="shared" si="12"/>
+        <v>1.0792391810076047</v>
       </c>
       <c r="L68">
-        <f t="shared" si="10"/>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
-        <v>4.0338314259950492E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.4463404848538817E-2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -3409,7 +3413,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
-        <v>0.13977489945863009</v>
+        <v>-2.9518158313449172E-2</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
@@ -3420,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <f>+K68*(1+F69)</f>
-        <v>1.0346083736946201</v>
+        <f t="shared" si="12"/>
+        <v>1.0473820280045449</v>
       </c>
       <c r="L69">
-        <f t="shared" si="10"/>
-        <v>0.87253389588145469</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
-        <v>0.18575149753859588</v>
+        <f t="shared" si="13"/>
+        <v>-5.7768681221155305E-3</v>
       </c>
       <c r="O69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -3456,7 +3460,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>-3.6213982639098807E-2</v>
+        <v>-7.2337535181997703E-3</v>
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
@@ -3467,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <f>+K69</f>
-        <v>1.0346083736946201</v>
+        <f t="shared" si="12"/>
+        <v>1.0398055245745679</v>
       </c>
       <c r="L70">
-        <f>+K69</f>
-        <v>1.0346083736946201</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M70">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-1.2968833200212804E-2</v>
       </c>
       <c r="O70" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -3503,33 +3507,33 @@
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>-7.6288079239718587E-2</v>
+        <v>2.5698247891435821E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G134" si="11">+IF(C71&gt;$G$4,1,0)</f>
+        <f t="shared" ref="G71:G134" si="14">+IF(C71&gt;$G$4,1,0)</f>
         <v>1</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71:H134" si="12">+IF(C71&lt;$H$4,1,0)</f>
+        <f t="shared" ref="H71:H134" si="15">+IF(C71&lt;$H$4,1,0)</f>
         <v>0</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <f>+K70*(1+F71)</f>
-        <v>0.9556800881001285</v>
+        <f t="shared" si="12"/>
+        <v>1.0665267047039695</v>
       </c>
       <c r="L71">
-        <f>+L70</f>
-        <v>1.0346083736946201</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
-        <v>-7.6288079239718587E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.2396138400781131E-2</v>
       </c>
       <c r="O71" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -3549,34 +3553,34 @@
         <v>4257.25</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F135" si="13">+C72/C71-1</f>
-        <v>-6.8412978998710683E-2</v>
+        <f t="shared" ref="F72:F135" si="16">+D72/D71-1</f>
+        <v>-4.291813651667864E-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <f>+K71</f>
-        <v>0.9556800881001285</v>
+        <v>1.0619493708328527</v>
       </c>
       <c r="L72">
-        <f>+K71</f>
-        <v>0.9556800881001285</v>
+        <f t="shared" si="9"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>8.0511228330968354E-3</v>
       </c>
       <c r="O72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -3596,15 +3600,15 @@
         <v>4201.5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="13"/>
-        <v>1.7201470910945371E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.2961545123475138E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -3612,15 +3616,15 @@
       </c>
       <c r="K73">
         <f>+K72*(1+F73)</f>
-        <v>0.97211919133575253</v>
+        <v>1.0481848661439566</v>
       </c>
       <c r="L73">
         <f>+L72</f>
-        <v>0.9556800881001285</v>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
-        <v>1.7201470910945371E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0147772822741743E-3</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -3640,15 +3644,15 @@
         <v>4201.5</v>
       </c>
       <c r="F74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -3656,15 +3660,15 @@
       </c>
       <c r="K74">
         <f>+K73*(1+F74)</f>
-        <v>0.97211919133575253</v>
+        <v>1.0481848661439566</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L76" si="14">+L73</f>
-        <v>0.9556800881001285</v>
+        <f t="shared" ref="L74:L76" si="17">+L73</f>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
-        <v>1.7201470910945371E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0147772822741743E-3</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -3684,15 +3688,15 @@
         <v>4201.5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -3700,15 +3704,15 @@
       </c>
       <c r="K75">
         <f>+K74*(1+F75)</f>
-        <v>0.97211919133575253</v>
+        <v>1.0481848661439566</v>
       </c>
       <c r="L75">
-        <f t="shared" si="14"/>
-        <v>0.9556800881001285</v>
+        <f t="shared" si="17"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
-        <v>1.7201470910945371E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0147772822741743E-3</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -3728,15 +3732,15 @@
         <v>4172</v>
       </c>
       <c r="F76">
-        <f t="shared" si="13"/>
-        <v>3.317074659394037E-2</v>
+        <f t="shared" si="16"/>
+        <v>-7.4210024659636664E-3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J76">
@@ -3744,15 +3748,15 @@
       </c>
       <c r="K76">
         <f>+K75*(1+F76)</f>
-        <v>1.004365110690657</v>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L76">
-        <f t="shared" si="14"/>
-        <v>0.9556800881001285</v>
+        <f t="shared" si="17"/>
+        <v>1.0534677723965788</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
-        <v>5.0942803137515646E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.2398565073659662E-2</v>
       </c>
       <c r="O76" t="s">
         <v>15</v>
@@ -3775,15 +3779,15 @@
         <v>4262</v>
       </c>
       <c r="F77">
-        <f t="shared" si="13"/>
-        <v>-6.1063912688220867E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.1408574170870942E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -3791,14 +3795,14 @@
       </c>
       <c r="K77">
         <f>+K76</f>
-        <v>1.004365110690657</v>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L77">
         <f>+K76</f>
-        <v>1.004365110690657</v>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3819,30 +3823,30 @@
         <v>4358</v>
       </c>
       <c r="F78">
-        <f t="shared" si="13"/>
-        <v>-0.10593361902427745</v>
+        <f t="shared" si="16"/>
+        <v>2.238376135718223E-2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K119" si="15">+K77</f>
-        <v>1.004365110690657</v>
+        <f t="shared" ref="K78:K119" si="18">+K77</f>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L93" si="16">+K77</f>
-        <v>1.004365110690657</v>
+        <f t="shared" ref="L78:L91" si="19">+K77</f>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3863,30 +3867,30 @@
         <v>4410.25</v>
       </c>
       <c r="F79">
-        <f t="shared" si="13"/>
-        <v>-3.7495312978602757E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.234781757145198E-2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L79">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N79" t="s">
@@ -3910,30 +3914,30 @@
         <v>4409.35009765625</v>
       </c>
       <c r="F80">
-        <f t="shared" si="13"/>
-        <v>-7.0120733607742958E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.1662294827948783E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L80">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,30 +3958,30 @@
         <v>4409.35009765625</v>
       </c>
       <c r="F81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L81">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3998,30 +4002,30 @@
         <v>4409.35009765625</v>
       </c>
       <c r="F82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L82">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4042,30 +4046,30 @@
         <v>4452.25</v>
       </c>
       <c r="F83">
-        <f t="shared" si="13"/>
-        <v>-1.4243826587096442E-2</v>
+        <f t="shared" si="16"/>
+        <v>-4.3466036210393355E-4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L83">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4086,30 +4090,30 @@
         <v>4505</v>
       </c>
       <c r="F84">
-        <f t="shared" si="13"/>
-        <v>-2.5074378893781613E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.1304113600650201E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L84">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4130,30 +4134,30 @@
         <v>4447.5</v>
       </c>
       <c r="F85">
-        <f t="shared" si="13"/>
-        <v>2.746290959458686E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.2272698789159042E-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L85">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4174,30 +4178,30 @@
         <v>4512.5</v>
       </c>
       <c r="F86">
-        <f t="shared" si="13"/>
-        <v>-8.0610930977122353E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.4343912920566471E-2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L86">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4218,30 +4222,30 @@
         <v>4536.5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="13"/>
-        <v>-3.96862301487656E-2</v>
+        <f t="shared" si="16"/>
+        <v>5.0661705674490687E-3</v>
       </c>
       <c r="G87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L87">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4262,30 +4266,30 @@
         <v>4536.5</v>
       </c>
       <c r="F88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L88">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4306,30 +4310,30 @@
         <v>4536.5</v>
       </c>
       <c r="F89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L89">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4350,30 +4354,30 @@
         <v>4568</v>
       </c>
       <c r="F90">
-        <f t="shared" si="13"/>
-        <v>-5.6703524048953735E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.1449552765867619E-3</v>
       </c>
       <c r="G90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="15"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="18"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="L90">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O90" t="s">
@@ -4397,28 +4401,28 @@
         <v>4625.5</v>
       </c>
       <c r="F91">
-        <f t="shared" si="13"/>
-        <v>-3.7187955855614185E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.2256547427530462E-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K91">
         <f>+K90*(1+F91)</f>
-        <v>0.96701482529137384</v>
+        <v>1.0531580726271881</v>
       </c>
       <c r="L91">
-        <f t="shared" si="16"/>
-        <v>1.004365110690657</v>
+        <f t="shared" si="19"/>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M91">
-        <f t="shared" si="4"/>
-        <v>-3.7187955855614185E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.2256547427530462E-2</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -4438,28 +4442,28 @@
         <v>4596</v>
       </c>
       <c r="F92">
-        <f t="shared" si="13"/>
-        <v>2.2751339357393041E-2</v>
+        <f t="shared" si="16"/>
+        <v>-6.2937001746978805E-3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K92">
         <f>+K91*(1+F92)</f>
-        <v>0.98901570774520797</v>
+        <v>1.0465298114815098</v>
       </c>
       <c r="L92">
         <f>+L91</f>
-        <v>1.004365110690657</v>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M92">
-        <f t="shared" si="4"/>
-        <v>-1.5282692301900047E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.8857082181467124E-3</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -4479,28 +4483,28 @@
         <v>4530.75</v>
       </c>
       <c r="F93">
-        <f t="shared" si="13"/>
-        <v>6.3631637200777913E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.5652540713177343E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K93">
         <f>+K92*(1+F93)</f>
-        <v>1.0519483964463217</v>
+        <v>1.0301489609997416</v>
       </c>
       <c r="L93">
         <f>+L92</f>
-        <v>1.004365110690657</v>
+        <v>1.0404062836675165</v>
       </c>
       <c r="M93">
-        <f t="shared" si="4"/>
-        <v>4.7376482166872291E-2</v>
+        <f t="shared" si="5"/>
+        <v>-9.8589587825411718E-3</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -4520,23 +4524,23 @@
         <v>4539.25</v>
       </c>
       <c r="F94">
-        <f t="shared" si="13"/>
-        <v>-4.5233479053164438E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.4102225843584133E-3</v>
       </c>
       <c r="G94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K94">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4557,23 +4561,23 @@
         <v>4539.25</v>
       </c>
       <c r="F95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M95" t="e">
-        <f t="shared" ref="M95:M145" si="17">+K95/L95-1</f>
+        <f t="shared" ref="M95:M145" si="20">+K95/L95-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4594,23 +4598,23 @@
         <v>4539.25</v>
       </c>
       <c r="F96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M96" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4631,23 +4635,23 @@
         <v>4577.75</v>
       </c>
       <c r="F97">
-        <f t="shared" si="13"/>
-        <v>-5.3998956253698993E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.0909386878793566E-3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K97">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M97" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4668,23 +4672,23 @@
         <v>4520.25</v>
       </c>
       <c r="F98">
-        <f t="shared" si="13"/>
-        <v>0.13247178418139316</v>
+        <f t="shared" si="16"/>
+        <v>-1.2551720801807331E-2</v>
       </c>
       <c r="G98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M98" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4705,23 +4709,23 @@
         <v>4475.75</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
-        <v>5.0879679500138719E-2</v>
+        <f t="shared" si="16"/>
+        <v>-9.7169166132718976E-3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M99" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4742,23 +4746,23 @@
         <v>4496.25</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
-        <v>-2.488692918169999E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.2533856284925342E-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M100" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4779,23 +4783,23 @@
         <v>4483.5</v>
       </c>
       <c r="F101">
-        <f t="shared" si="13"/>
-        <v>-1.8097420113952545E-2</v>
+        <f t="shared" si="16"/>
+        <v>-2.6510264820542861E-3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M101" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4816,23 +4820,23 @@
         <v>4483.5</v>
       </c>
       <c r="F102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M102" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4853,23 +4857,23 @@
         <v>4483.5</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M103" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4890,23 +4894,23 @@
         <v>4409</v>
       </c>
       <c r="F104">
-        <f t="shared" si="13"/>
-        <v>0.15170137121782057</v>
+        <f t="shared" si="16"/>
+        <v>-1.687729010355421E-2</v>
       </c>
       <c r="G104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M104" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4927,23 +4931,23 @@
         <v>4393</v>
       </c>
       <c r="F105">
-        <f t="shared" si="13"/>
-        <v>-4.5137712992798784E-3</v>
+        <f t="shared" si="16"/>
+        <v>-3.4174477177417728E-3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M105" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4964,23 +4968,23 @@
         <v>4442.25</v>
       </c>
       <c r="F106">
-        <f t="shared" si="13"/>
-        <v>-0.10057710268084696</v>
+        <f t="shared" si="16"/>
+        <v>1.1174577597236057E-2</v>
       </c>
       <c r="G106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M106" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5001,23 +5005,23 @@
         <v>4387.5</v>
       </c>
       <c r="F107">
-        <f t="shared" si="13"/>
-        <v>4.0330022017551537E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.214413784439794E-2</v>
       </c>
       <c r="G107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M107" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5038,23 +5042,23 @@
         <v>4387.5</v>
       </c>
       <c r="F108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M108" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5075,23 +5079,23 @@
         <v>4387.5</v>
       </c>
       <c r="F109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M109" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5112,23 +5116,23 @@
         <v>4387.5</v>
       </c>
       <c r="F110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M110" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5149,23 +5153,23 @@
         <v>4386.75</v>
       </c>
       <c r="F111">
-        <f t="shared" si="13"/>
-        <v>-2.3348047085125723E-2</v>
+        <f t="shared" si="16"/>
+        <v>-2.0486828403298851E-4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M111" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5186,23 +5190,23 @@
         <v>4459.25</v>
       </c>
       <c r="F112">
-        <f t="shared" si="13"/>
-        <v>-3.6084764740978881E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.6057604355527166E-2</v>
       </c>
       <c r="G112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M112" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5223,23 +5227,23 @@
         <v>4455.5</v>
       </c>
       <c r="F113">
-        <f t="shared" si="13"/>
-        <v>-4.9134352043705642E-2</v>
+        <f t="shared" si="16"/>
+        <v>-6.1847507158097059E-4</v>
       </c>
       <c r="G113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M113" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5260,23 +5264,23 @@
         <v>4390.5</v>
       </c>
       <c r="F114">
-        <f t="shared" si="13"/>
-        <v>0.11614176406472509</v>
+        <f t="shared" si="16"/>
+        <v>-1.4752948498371943E-2</v>
       </c>
       <c r="G114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M114" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5297,23 +5301,23 @@
         <v>4267.25</v>
       </c>
       <c r="F115">
-        <f t="shared" si="13"/>
-        <v>0.24382710339006852</v>
+        <f t="shared" si="16"/>
+        <v>-2.7740054250753654E-2</v>
       </c>
       <c r="G115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M115" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5334,23 +5338,23 @@
         <v>4267.25</v>
       </c>
       <c r="F116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M116" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5371,23 +5375,23 @@
         <v>4267.25</v>
       </c>
       <c r="F117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M117" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5408,23 +5412,23 @@
         <v>4292.75</v>
       </c>
       <c r="F118">
-        <f t="shared" si="13"/>
-        <v>-4.2183575516809957E-2</v>
+        <f t="shared" si="16"/>
+        <v>5.6979369853822348E-3</v>
       </c>
       <c r="G118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M118" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5445,23 +5449,23 @@
         <v>4170.5</v>
       </c>
       <c r="F119">
-        <f t="shared" si="13"/>
-        <v>0.24056254218649942</v>
+        <f t="shared" si="16"/>
+        <v>-2.8146308431003852E-2</v>
       </c>
       <c r="G119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" si="15"/>
-        <v>1.0519483964463217</v>
+        <f t="shared" si="18"/>
+        <v>1.0301489609997416</v>
       </c>
       <c r="M119" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O119" t="s">
@@ -5485,23 +5489,23 @@
         <v>4180.25</v>
       </c>
       <c r="F120">
-        <f t="shared" si="13"/>
-        <v>-5.7279237770691771E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.0980468517017847E-3</v>
       </c>
       <c r="G120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K120">
         <f>+K119*(1+F120)</f>
-        <v>0.99169359412377489</v>
+        <v>1.0323102617841511</v>
       </c>
       <c r="M120" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O120" t="s">
@@ -5525,23 +5529,23 @@
         <v>4283.5</v>
       </c>
       <c r="F121">
-        <f t="shared" si="13"/>
-        <v>-5.0949385788478518E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.4746900072939448E-2</v>
       </c>
       <c r="G121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K121">
         <f>+K120</f>
-        <v>0.99169359412377489</v>
+        <v>1.0323102617841511</v>
       </c>
       <c r="M121" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5562,23 +5566,23 @@
         <v>4127.5</v>
       </c>
       <c r="F122">
-        <f t="shared" si="13"/>
-        <v>0.11370462756871214</v>
+        <f t="shared" si="16"/>
+        <v>-3.6284507106413955E-2</v>
       </c>
       <c r="G122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K122">
         <f>+K121</f>
-        <v>0.99169359412377489</v>
+        <v>1.0323102617841511</v>
       </c>
       <c r="M122" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O122" t="s">
@@ -5602,23 +5606,23 @@
         <v>4127.5</v>
       </c>
       <c r="F123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K123">
         <f>+K122*(1+F123)</f>
-        <v>0.99169359412377489</v>
+        <v>1.0323102617841511</v>
       </c>
       <c r="M123" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5639,23 +5643,23 @@
         <v>4127.5</v>
       </c>
       <c r="F124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" ref="K124:K126" si="18">+K123*(1+F124)</f>
-        <v>0.99169359412377489</v>
+        <f t="shared" ref="K124:K126" si="21">+K123*(1+F124)</f>
+        <v>1.0323102617841511</v>
       </c>
       <c r="M124" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5676,23 +5680,23 @@
         <v>4151</v>
       </c>
       <c r="F125">
-        <f t="shared" si="13"/>
-        <v>-3.1736566612720507E-2</v>
+        <f t="shared" si="16"/>
+        <v>5.6752428123536536E-3</v>
       </c>
       <c r="G125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="18"/>
-        <v>0.96022064431445753</v>
+        <f t="shared" si="21"/>
+        <v>1.0381688731774605</v>
       </c>
       <c r="M125" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N125" t="s">
@@ -5716,23 +5720,23 @@
         <v>4169.25</v>
       </c>
       <c r="F126">
-        <f t="shared" si="13"/>
-        <v>-9.5547314100449254E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.8371263814863674E-3</v>
       </c>
       <c r="G126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="18"/>
-        <v>0.86847414080640828</v>
+        <f t="shared" si="21"/>
+        <v>1.0431906272223452</v>
       </c>
       <c r="M126" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O126" t="s">
@@ -5756,23 +5760,23 @@
         <v>4295.25</v>
       </c>
       <c r="F127">
-        <f t="shared" si="13"/>
-        <v>-0.13094016833183075</v>
+        <f t="shared" si="16"/>
+        <v>2.9862421084402291E-2</v>
       </c>
       <c r="G127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K127">
         <f>+K126</f>
-        <v>0.86847414080640828</v>
+        <v>1.0431906272223452</v>
       </c>
       <c r="M127" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5793,23 +5797,23 @@
         <v>4143.25</v>
       </c>
       <c r="F128">
-        <f t="shared" si="13"/>
-        <v>0.22738004206521545</v>
+        <f t="shared" si="16"/>
+        <v>-3.5649708609806985E-2</v>
       </c>
       <c r="G128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K128">
         <f>+K127</f>
-        <v>0.86847414080640828</v>
+        <v>1.0431906272223452</v>
       </c>
       <c r="M128" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O128" t="s">
@@ -5833,23 +5837,23 @@
         <v>4119.5</v>
       </c>
       <c r="F129">
-        <f t="shared" si="13"/>
-        <v>-3.2371801416157142E-2</v>
+        <f t="shared" si="16"/>
+        <v>-5.6742248424840325E-3</v>
       </c>
       <c r="G129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K129">
         <f>+K128*(1+F129)</f>
-        <v>0.84036006838515553</v>
+        <v>1.0372713290499136</v>
       </c>
       <c r="M129" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5870,23 +5874,23 @@
         <v>4119.5</v>
       </c>
       <c r="F130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K130">
         <f>+K129*(1+F130)</f>
-        <v>0.84036006838515553</v>
+        <v>1.0372713290499136</v>
       </c>
       <c r="M130" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5907,23 +5911,23 @@
         <v>4119.5</v>
       </c>
       <c r="F131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K131">
         <f>+K130*(1+F131)</f>
-        <v>0.84036006838515553</v>
+        <v>1.0372713290499136</v>
       </c>
       <c r="M131" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5944,23 +5948,23 @@
         <v>3987.5</v>
       </c>
       <c r="F132">
-        <f t="shared" si="13"/>
-        <v>0.15104337148978186</v>
+        <f t="shared" si="16"/>
+        <v>-3.2037100632356763E-2</v>
       </c>
       <c r="G132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K132">
         <f>+K131*(1+F132)</f>
-        <v>0.96729088637943306</v>
+        <v>1.0040401630980831</v>
       </c>
       <c r="M132" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O132" t="s">
@@ -5984,23 +5988,23 @@
         <v>3996.75</v>
       </c>
       <c r="F133">
-        <f t="shared" si="13"/>
-        <v>-5.0647433713185697E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.4578974498534745E-3</v>
       </c>
       <c r="G133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K133">
         <f>+K132</f>
-        <v>0.96729088637943306</v>
+        <v>1.0040401630980831</v>
       </c>
       <c r="M133" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O133" t="s">
@@ -6024,23 +6028,23 @@
         <v>3930.25</v>
       </c>
       <c r="F134">
-        <f t="shared" si="13"/>
-        <v>-1.303426139127617E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.6463207503938371E-2</v>
       </c>
       <c r="G134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K134">
         <f>+K133*(1+F134)</f>
-        <v>0.95468296412496434</v>
+        <v>0.98751044155071122</v>
       </c>
       <c r="M134" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6061,23 +6065,23 @@
         <v>3927.25</v>
       </c>
       <c r="F135">
-        <f t="shared" si="13"/>
-        <v>-2.4262926357717873E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.2959645058717717E-3</v>
       </c>
       <c r="G135">
-        <f t="shared" ref="G135:G184" si="19">+IF(C135&gt;$G$4,1,0)</f>
+        <f t="shared" ref="G135:G184" si="22">+IF(C135&gt;$G$4,1,0)</f>
         <v>1</v>
       </c>
       <c r="H135">
-        <f t="shared" ref="H135:H184" si="20">+IF(C135&lt;$H$4,1,0)</f>
+        <f t="shared" ref="H135:H184" si="23">+IF(C135&lt;$H$4,1,0)</f>
         <v>0</v>
       </c>
       <c r="K135">
-        <f t="shared" ref="K135:K136" si="21">+K134*(1+F135)</f>
-        <v>0.93151956167143246</v>
+        <f t="shared" ref="K135:K136" si="24">+K134*(1+F135)</f>
+        <v>0.98623066306928375</v>
       </c>
       <c r="M135" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6098,23 +6102,23 @@
         <v>4019.75</v>
       </c>
       <c r="F136">
-        <f t="shared" ref="F136:F184" si="22">+C136/C135-1</f>
-        <v>-9.1281069460028674E-2</v>
+        <f t="shared" ref="F136:F184" si="25">+D136/D135-1</f>
+        <v>2.3869695423071491E-2</v>
       </c>
       <c r="G136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H136">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="24"/>
+        <v>1.0097716886136414</v>
+      </c>
+      <c r="M136" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="21"/>
-        <v>0.84648945985912694</v>
-      </c>
-      <c r="M136" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O136" t="s">
@@ -6138,23 +6142,23 @@
         <v>4019.75</v>
       </c>
       <c r="F137">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G137">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K137">
         <f>+K136</f>
-        <v>0.84648945985912694</v>
+        <v>1.0097716886136414</v>
       </c>
       <c r="M137" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6175,19 +6179,19 @@
         <v>4019.75</v>
       </c>
       <c r="F138">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G138">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H138">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M138" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M138" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6208,19 +6212,19 @@
         <v>4004.75</v>
       </c>
       <c r="F139">
+        <f t="shared" si="25"/>
+        <v>-3.9464009295556712E-3</v>
+      </c>
+      <c r="G139">
         <f t="shared" si="22"/>
-        <v>-4.8493297027423443E-2</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H139">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M139" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M139" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6241,19 +6245,19 @@
         <v>4084.75</v>
       </c>
       <c r="F140">
+        <f t="shared" si="25"/>
+        <v>2.0169632234863677E-2</v>
+      </c>
+      <c r="G140">
         <f t="shared" si="22"/>
-        <v>-4.987255064177365E-2</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H140">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M140" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M140" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6274,19 +6278,19 @@
         <v>3922.75</v>
       </c>
       <c r="F141">
+        <f t="shared" si="25"/>
+        <v>-4.0395260787452592E-2</v>
+      </c>
+      <c r="G141">
         <f t="shared" si="22"/>
-        <v>0.18620684413680677</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H141">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M141" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M141" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6307,19 +6311,19 @@
         <v>3897.75</v>
       </c>
       <c r="F142">
+        <f t="shared" si="25"/>
+        <v>-5.8337818009925879E-3</v>
+      </c>
+      <c r="G142">
         <f t="shared" si="22"/>
-        <v>-5.2002543624440567E-2</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H142">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M142" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M142" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6340,19 +6344,19 @@
         <v>3899.5</v>
       </c>
       <c r="F143">
+        <f t="shared" si="25"/>
+        <v>1.4614176965843662E-4</v>
+      </c>
+      <c r="G143">
         <f t="shared" si="22"/>
-        <v>2.7257213855629292E-3</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H143">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M143" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M143" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6373,19 +6377,19 @@
         <v>3899.5</v>
       </c>
       <c r="F144">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G144">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H144">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M144" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M144" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6406,19 +6410,19 @@
         <v>3899.5</v>
       </c>
       <c r="F145">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G145">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H145">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M145" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M145" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6439,15 +6443,15 @@
         <v>3971.75</v>
       </c>
       <c r="F146">
+        <f t="shared" si="25"/>
+        <v>1.8555039930923556E-2</v>
+      </c>
+      <c r="G146">
         <f t="shared" si="22"/>
-        <v>-3.2280011997566138E-2</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6468,15 +6472,15 @@
         <v>3940.5</v>
       </c>
       <c r="F147">
+        <f t="shared" si="25"/>
+        <v>-8.1207976171752128E-3</v>
+      </c>
+      <c r="G147">
         <f t="shared" si="22"/>
-        <v>3.4059032173248127E-2</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,15 +6501,15 @@
         <v>3976.75</v>
       </c>
       <c r="F148">
+        <f t="shared" si="25"/>
+        <v>9.450764734207695E-3</v>
+      </c>
+      <c r="G148">
         <f t="shared" si="22"/>
-        <v>-3.6672322435561622E-2</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6526,15 +6530,15 @@
         <v>4055.75</v>
       </c>
       <c r="F149">
+        <f t="shared" si="25"/>
+        <v>1.9883256167224195E-2</v>
+      </c>
+      <c r="G149">
         <f t="shared" si="22"/>
-        <v>-3.0666225361201227E-2</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6555,15 +6559,15 @@
         <v>4155.75</v>
       </c>
       <c r="F150">
+        <f t="shared" si="25"/>
+        <v>2.4742262955109728E-2</v>
+      </c>
+      <c r="G150">
         <f t="shared" si="22"/>
-        <v>-6.4727297696200448E-2</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6584,15 +6588,15 @@
         <v>4155.75</v>
       </c>
       <c r="F151">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G151">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6613,15 +6617,15 @@
         <v>4155.75</v>
       </c>
       <c r="F152">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G152">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6642,15 +6646,15 @@
         <v>4155.75</v>
       </c>
       <c r="F153">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G153">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H153">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,15 +6675,15 @@
         <v>4131.25</v>
       </c>
       <c r="F154">
+        <f t="shared" si="25"/>
+        <v>-6.2743686176590652E-3</v>
+      </c>
+      <c r="G154">
         <f t="shared" si="22"/>
-        <v>1.8273764900883727E-2</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6700,15 +6704,15 @@
         <v>4099</v>
       </c>
       <c r="F155">
+        <f t="shared" si="25"/>
+        <v>-7.4827686811318461E-3</v>
+      </c>
+      <c r="G155">
         <f t="shared" si="22"/>
-        <v>-1.9091255815355868E-2</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6729,15 +6733,15 @@
         <v>4175.25</v>
       </c>
       <c r="F156">
+        <f t="shared" si="25"/>
+        <v>1.8431018038486124E-2</v>
+      </c>
+      <c r="G156">
         <f t="shared" si="22"/>
-        <v>-3.7757929176263971E-2</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6758,15 +6762,15 @@
         <v>4107</v>
       </c>
       <c r="F157">
+        <f t="shared" si="25"/>
+        <v>-1.6347313992415624E-2</v>
+      </c>
+      <c r="G157">
         <f t="shared" si="22"/>
-        <v>2.8317801018318267E-3</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6787,15 +6791,15 @@
         <v>4107</v>
       </c>
       <c r="F158">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G158">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H158">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6816,15 +6820,15 @@
         <v>4107</v>
       </c>
       <c r="F159">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G159">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6845,15 +6849,15 @@
         <v>4120.5</v>
       </c>
       <c r="F160">
+        <f t="shared" si="25"/>
+        <v>3.1374007789131131E-3</v>
+      </c>
+      <c r="G160">
         <f t="shared" si="22"/>
-        <v>1.1294827307630317E-2</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6874,15 +6878,15 @@
         <v>4158.75</v>
       </c>
       <c r="F161">
+        <f t="shared" si="25"/>
+        <v>9.5233931732350285E-3</v>
+      </c>
+      <c r="G161">
         <f t="shared" si="22"/>
-        <v>-4.1882698438058807E-2</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6903,15 +6907,15 @@
         <v>4114</v>
       </c>
       <c r="F162">
+        <f t="shared" si="25"/>
+        <v>-1.0793945785935621E-2</v>
+      </c>
+      <c r="G162">
         <f t="shared" si="22"/>
-        <v>-2.4979755265415182E-3</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6932,15 +6936,15 @@
         <v>4016.25</v>
       </c>
       <c r="F163">
+        <f t="shared" si="25"/>
+        <v>-2.3798693976353591E-2</v>
+      </c>
+      <c r="G163">
         <f t="shared" si="22"/>
-        <v>8.8898211581968756E-2</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6961,15 +6965,15 @@
         <v>3899</v>
       </c>
       <c r="F164">
+        <f t="shared" si="25"/>
+        <v>-2.9110303335524668E-2</v>
+      </c>
+      <c r="G164">
         <f t="shared" si="22"/>
-        <v>6.3625904089826157E-2</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6990,15 +6994,15 @@
         <v>3899</v>
       </c>
       <c r="F165">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G165">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7019,15 +7023,15 @@
         <v>3899</v>
       </c>
       <c r="F166">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G166">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7048,15 +7052,15 @@
         <v>3750.5</v>
       </c>
       <c r="F167">
+        <f t="shared" si="25"/>
+        <v>-3.8768430665237275E-2</v>
+      </c>
+      <c r="G167">
         <f t="shared" si="22"/>
-        <v>0.22594596244193421</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7077,15 +7081,15 @@
         <v>3736.75</v>
       </c>
       <c r="F168">
+        <f t="shared" si="25"/>
+        <v>-3.7736797459957394E-3</v>
+      </c>
+      <c r="G168">
         <f t="shared" si="22"/>
-        <v>-3.9094703502603134E-2</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7106,15 +7110,15 @@
         <v>3789.25</v>
       </c>
       <c r="F169">
+        <f t="shared" si="25"/>
+        <v>1.4592504858983224E-2</v>
+      </c>
+      <c r="G169">
         <f t="shared" si="22"/>
-        <v>-9.3912447734619153E-2</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7135,15 +7139,15 @@
         <v>3668.25</v>
       </c>
       <c r="F170">
+        <f t="shared" si="25"/>
+        <v>-3.2511951488163437E-2</v>
+      </c>
+      <c r="G170">
         <f t="shared" si="22"/>
-        <v>0.11242403205118334</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7164,15 +7168,15 @@
         <v>3663.760009765625</v>
       </c>
       <c r="F171">
+        <f t="shared" si="25"/>
+        <v>2.2008656982546171E-3</v>
+      </c>
+      <c r="G171">
         <f t="shared" si="22"/>
-        <v>-5.5235252201265461E-2</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,15 +7197,15 @@
         <v>3663.760009765625</v>
       </c>
       <c r="F172">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7222,15 +7226,15 @@
         <v>3663.760009765625</v>
       </c>
       <c r="F173">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7251,15 +7255,15 @@
         <v>3716</v>
       </c>
       <c r="F174">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7280,15 +7284,15 @@
         <v>3767.75</v>
       </c>
       <c r="F175">
+        <f t="shared" si="25"/>
+        <v>2.4477242280086964E-2</v>
+      </c>
+      <c r="G175">
         <f t="shared" si="22"/>
-        <v>-3.0195909156774725E-2</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7309,15 +7313,15 @@
         <v>3762.75</v>
       </c>
       <c r="F176">
+        <f t="shared" si="25"/>
+        <v>-1.3015723144006452E-3</v>
+      </c>
+      <c r="G176">
         <f t="shared" si="22"/>
-        <v>-4.1073194739407737E-2</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7338,15 +7342,15 @@
         <v>3799.75</v>
       </c>
       <c r="F177">
+        <f t="shared" si="25"/>
+        <v>9.5322174091778678E-3</v>
+      </c>
+      <c r="G177">
         <f t="shared" si="22"/>
-        <v>3.4541786350870129E-3</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7367,15 +7371,15 @@
         <v>3916.25</v>
       </c>
       <c r="F178">
+        <f t="shared" si="25"/>
+        <v>3.056329358583576E-2</v>
+      </c>
+      <c r="G178">
         <f t="shared" si="22"/>
-        <v>-6.2650593549839151E-2</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7396,15 +7400,15 @@
         <v>3916.25</v>
       </c>
       <c r="F179">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G179">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7425,15 +7429,15 @@
         <v>3916.25</v>
       </c>
       <c r="F180">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G180">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H180">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7454,15 +7458,15 @@
         <v>3903.75</v>
       </c>
       <c r="F181">
+        <f t="shared" si="25"/>
+        <v>-2.9730715337762392E-3</v>
+      </c>
+      <c r="G181">
         <f t="shared" si="22"/>
-        <v>-1.0282731693130431E-2</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7483,15 +7487,15 @@
         <v>3825.5</v>
       </c>
       <c r="F182">
+        <f t="shared" si="25"/>
+        <v>-2.0143036075892073E-2</v>
+      </c>
+      <c r="G182">
         <f t="shared" si="22"/>
-        <v>5.2319102318953759E-2</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7512,15 +7516,15 @@
         <v>3821.25</v>
       </c>
       <c r="F183">
+        <f t="shared" si="25"/>
+        <v>-7.1174540915908135E-4</v>
+      </c>
+      <c r="G183">
         <f t="shared" si="22"/>
-        <v>-7.0522129278955958E-3</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -7541,15 +7545,15 @@
         <v>3821.25</v>
       </c>
       <c r="F184">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G184">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="H184">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
